--- a/results/radix.xlsx
+++ b/results/radix.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\PycharmProjects\sorts\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90B75E96-7DD4-4E11-86DF-45D80FBFC323}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
     <sheet name="reversed" sheetId="2" r:id="rId2"/>
     <sheet name="sorted" sheetId="3" r:id="rId3"/>
     <sheet name="partly_sorted" sheetId="4" r:id="rId4"/>
+    <sheet name="same_elements" sheetId="5" r:id="rId5"/>
+    <sheet name="partly_same" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>byte</t>
   </si>
@@ -28,8 +36,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +74,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +160,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +212,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,14 +405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -380,41 +432,41 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C2">
-        <v>0.014001</v>
+        <v>1.4001E-2</v>
       </c>
       <c r="D2">
-        <v>0.13098</v>
+        <v>0.13098000000000001</v>
       </c>
       <c r="E2">
-        <v>1.312115</v>
+        <v>1.3121149999999999</v>
       </c>
       <c r="F2">
         <v>13.322175</v>
       </c>
       <c r="G2">
-        <v>149.935276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>149.93527599999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C3">
-        <v>0.015033</v>
+        <v>1.5032999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>0.143049</v>
+        <v>0.14304900000000001</v>
       </c>
       <c r="E3">
         <v>1.381086</v>
@@ -423,7 +475,7 @@
         <v>14.557318</v>
       </c>
       <c r="G3">
-        <v>199.53576</v>
+        <v>199.53576000000001</v>
       </c>
     </row>
   </sheetData>
@@ -432,14 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -459,18 +511,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004961</v>
+        <v>4.9610000000000001E-3</v>
       </c>
       <c r="C2">
-        <v>0.014966</v>
+        <v>1.4966E-2</v>
       </c>
       <c r="D2">
-        <v>0.159978</v>
+        <v>0.15997800000000001</v>
       </c>
       <c r="E2">
         <v>1.652145</v>
@@ -482,24 +534,24 @@
         <v>154.705782</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003036</v>
+        <v>3.0360000000000001E-3</v>
       </c>
       <c r="C3">
-        <v>0.016037</v>
+        <v>1.6036999999999999E-2</v>
       </c>
       <c r="D3">
         <v>0.202019</v>
       </c>
       <c r="E3">
-        <v>1.62718</v>
+        <v>1.6271800000000001</v>
       </c>
       <c r="F3">
-        <v>15.848247</v>
+        <v>15.848247000000001</v>
       </c>
       <c r="G3">
         <v>162.690012</v>
@@ -511,14 +563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -538,7 +590,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -546,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.013966</v>
+        <v>1.3965999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>0.131982</v>
+        <v>0.13198199999999999</v>
       </c>
       <c r="E2">
         <v>1.325151</v>
@@ -558,18 +610,18 @@
         <v>13.668205</v>
       </c>
       <c r="G2">
-        <v>143.235394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>143.23539400000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.043004</v>
+        <v>4.3004000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.016033</v>
+        <v>1.6032999999999999E-2</v>
       </c>
       <c r="D3">
         <v>0.14301</v>
@@ -578,10 +630,10 @@
         <v>1.408128</v>
       </c>
       <c r="F3">
-        <v>16.38244</v>
+        <v>16.382439999999999</v>
       </c>
       <c r="G3">
-        <v>158.655086</v>
+        <v>158.65508600000001</v>
       </c>
     </row>
   </sheetData>
@@ -590,14 +642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -617,41 +669,41 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.002998</v>
+        <v>2.9979999999999998E-3</v>
       </c>
       <c r="C2">
-        <v>0.015036</v>
+        <v>1.5036000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>0.133976</v>
+        <v>0.13397600000000001</v>
       </c>
       <c r="E2">
-        <v>1.311116</v>
+        <v>1.3111159999999999</v>
       </c>
       <c r="F2">
         <v>13.539197</v>
       </c>
       <c r="G2">
-        <v>150.201689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>150.20168899999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002999</v>
+        <v>2.9989999999999999E-3</v>
       </c>
       <c r="C3">
-        <v>0.014003</v>
+        <v>1.4003E-2</v>
       </c>
       <c r="D3">
-        <v>0.185017</v>
+        <v>0.18501699999999999</v>
       </c>
       <c r="E3">
         <v>1.386153</v>
@@ -660,7 +712,149 @@
         <v>16.076383</v>
       </c>
       <c r="G3">
-        <v>181.811186</v>
+        <v>181.81118599999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48863D98-D2F2-421D-8DD6-F68F79212A2C}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.0029999999999996E-3</v>
+      </c>
+      <c r="C2">
+        <v>3.3033E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.384903</v>
+      </c>
+      <c r="E2">
+        <v>2.3812120000000001</v>
+      </c>
+      <c r="F2">
+        <v>24.266970000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.0060000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.4535999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.28824</v>
+      </c>
+      <c r="E3">
+        <v>2.4252150000000001</v>
+      </c>
+      <c r="F3">
+        <v>26.466301000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B6391-B7DC-4BA9-8F74-271F36AED3B8}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.6036000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.14002700000000001</v>
+      </c>
+      <c r="E2">
+        <v>1.4141600000000001</v>
+      </c>
+      <c r="F2">
+        <v>14.362453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.0010000000000002E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.3988E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.147977</v>
+      </c>
+      <c r="E3">
+        <v>1.426091</v>
+      </c>
+      <c r="F3">
+        <v>16.179431000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/radix.xlsx
+++ b/results/radix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\PycharmProjects\sorts\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90B75E96-7DD4-4E11-86DF-45D80FBFC323}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B46685B7-3E74-4DA6-8C9A-F36215D7ED9C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -487,7 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -566,7 +570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -645,7 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="A1:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -722,13 +730,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48863D98-D2F2-421D-8DD6-F68F79212A2C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -744,45 +754,54 @@
       <c r="F1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.0029999999999996E-3</v>
+        <v>3.503E-3</v>
       </c>
       <c r="C2">
-        <v>3.3033E-2</v>
+        <v>1.8519999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>0.384903</v>
+        <v>0.19019900000000001</v>
       </c>
       <c r="E2">
-        <v>2.3812120000000001</v>
+        <v>1.8714550000000001</v>
       </c>
       <c r="F2">
-        <v>24.266970000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.047982999999999</v>
+      </c>
+      <c r="G2">
+        <v>206.405991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.0060000000000001E-3</v>
+        <v>4.5050000000000003E-3</v>
       </c>
       <c r="C3">
-        <v>3.4535999999999997E-2</v>
+        <v>1.7517000000000001E-2</v>
       </c>
       <c r="D3">
-        <v>0.28824</v>
+        <v>0.22573599999999999</v>
       </c>
       <c r="E3">
-        <v>2.4252150000000001</v>
+        <v>1.8399220000000001</v>
       </c>
       <c r="F3">
-        <v>26.466301000000001</v>
+        <v>22.778307999999999</v>
+      </c>
+      <c r="G3">
+        <v>229.372907</v>
       </c>
     </row>
   </sheetData>
@@ -792,15 +811,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B6391-B7DC-4BA9-8F74-271F36AED3B8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -816,45 +835,54 @@
       <c r="F1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.0000000000000001E-3</v>
+        <v>3.003E-3</v>
       </c>
       <c r="C2">
-        <v>1.6036000000000002E-2</v>
+        <v>1.8519000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>0.14002700000000001</v>
+        <v>0.229739</v>
       </c>
       <c r="E2">
-        <v>1.4141600000000001</v>
+        <v>2.4205290000000002</v>
       </c>
       <c r="F2">
-        <v>14.362453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.456924999999998</v>
+      </c>
+      <c r="G2">
+        <v>221.834946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.0010000000000002E-3</v>
+        <v>4.5050000000000003E-3</v>
       </c>
       <c r="C3">
-        <v>1.3988E-2</v>
+        <v>2.2023000000000001E-2</v>
       </c>
       <c r="D3">
-        <v>0.147977</v>
+        <v>0.24926000000000001</v>
       </c>
       <c r="E3">
-        <v>1.426091</v>
+        <v>2.188285</v>
       </c>
       <c r="F3">
-        <v>16.179431000000001</v>
+        <v>22.878900000000002</v>
+      </c>
+      <c r="G3">
+        <v>229.67623900000001</v>
       </c>
     </row>
   </sheetData>
